--- a/Planung/Gantt-Chart.xlsx
+++ b/Planung/Gantt-Chart.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\IMS-T\IP\Projekte\Projekt_DMHS_Wanduhr\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="11_AD4DB114E441178AC67DF4545ED0D24E693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D88B2EB-9B74-4155-A52A-3721A58B3F25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30780" yWindow="2895" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
+    <sheet name="Gantt Chart für Digital-Uhr" sheetId="1" r:id="rId1"/>
     <sheet name="Daten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,34 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>Gantt Chart</t>
-  </si>
-  <si>
-    <t>Skizze für Uhr</t>
-  </si>
-  <si>
-    <t>Display für programmieren umbauen</t>
-  </si>
-  <si>
-    <t>Entwickeln, informationsbeschaffung</t>
-  </si>
-  <si>
-    <t>Hardware, informationsbeschaffung</t>
-  </si>
-  <si>
-    <t>Web-App, informationsbeschaffung</t>
-  </si>
-  <si>
-    <t>Wierframe für Web-App</t>
-  </si>
-  <si>
-    <t>Uhr Funktion funktionsfähig</t>
-  </si>
-  <si>
-    <t>Präsentierbar sein</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>David</t>
   </si>
@@ -75,15 +48,9 @@
     <t>Deadline</t>
   </si>
   <si>
-    <t>Auftrag</t>
-  </si>
-  <si>
     <t>David, Yves</t>
   </si>
   <si>
-    <t>Yves, David</t>
-  </si>
-  <si>
     <t>Zeit in h</t>
   </si>
   <si>
@@ -91,6 +58,60 @@
   </si>
   <si>
     <t>Wer?</t>
+  </si>
+  <si>
+    <t>1 Display</t>
+  </si>
+  <si>
+    <t>1.1 Hacking, informieren</t>
+  </si>
+  <si>
+    <t>1.2 Arduino, informieren</t>
+  </si>
+  <si>
+    <t>1.3 Skizze für Uhr 16*16 Pixel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4 Hacking, umbauen </t>
+  </si>
+  <si>
+    <t>2 Funktionen</t>
+  </si>
+  <si>
+    <t>2.1 Digital Uhr, Planen</t>
+  </si>
+  <si>
+    <t>2.2 Digital Uhr, Programmieren</t>
+  </si>
+  <si>
+    <t>3 Web-App</t>
+  </si>
+  <si>
+    <t>Gantt Chart für Digital-Uhr</t>
+  </si>
+  <si>
+    <t>3.1 Userinterface entwerfen</t>
+  </si>
+  <si>
+    <t>3.2 Wierframe entwerfen</t>
+  </si>
+  <si>
+    <t>3.3 Fernsteuerung, informieren</t>
+  </si>
+  <si>
+    <t>3.4 Fernsteuerung, implementieren</t>
+  </si>
+  <si>
+    <t>3.5 Web-App, Realisieren</t>
+  </si>
+  <si>
+    <t>Auftrag optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auftrag </t>
+  </si>
+  <si>
+    <t>noch offen</t>
   </si>
 </sst>
 </file>
@@ -121,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +197,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,7 +248,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -230,7 +259,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -241,7 +272,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -249,26 +282,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -276,8 +293,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -287,8 +306,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -297,13 +318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -314,18 +334,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -612,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AV18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,268 +648,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
     </row>
     <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8">
         <v>45411</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>45412</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>45413</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>45414</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>45415</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>45416</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>45417</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>45418</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>45419</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>45420</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>45421</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>45422</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>45423</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <v>45424</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <v>45425</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <v>45426</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="8">
         <v>45427</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <v>45428</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <v>45429</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="8">
         <v>45430</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="8">
         <v>45431</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="8">
         <v>45432</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="8">
         <v>45433</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="8">
         <v>45434</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="8">
         <v>45435</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="8">
         <v>45436</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AE3" s="8">
         <v>45437</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AF3" s="8">
         <v>45438</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AG3" s="8">
         <v>45439</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="8">
         <v>45440</v>
       </c>
-      <c r="AI3" s="9">
+      <c r="AI3" s="8">
         <v>45441</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AJ3" s="8">
         <v>45442</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AK3" s="8">
         <v>45443</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AL3" s="8">
         <v>45444</v>
       </c>
-      <c r="AM3" s="9">
+      <c r="AM3" s="8">
         <v>45445</v>
       </c>
-      <c r="AN3" s="9">
+      <c r="AN3" s="8">
         <v>45446</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AO3" s="8">
         <v>45447</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AP3" s="8">
         <v>45448</v>
       </c>
-      <c r="AQ3" s="9">
+      <c r="AQ3" s="8">
         <v>45449</v>
       </c>
-      <c r="AR3" s="9">
+      <c r="AR3" s="8">
         <v>45450</v>
       </c>
-      <c r="AS3" s="9">
+      <c r="AS3" s="8">
         <v>45451</v>
       </c>
-      <c r="AT3" s="9">
+      <c r="AT3" s="8">
         <v>45452</v>
       </c>
-      <c r="AU3" s="9">
+      <c r="AU3" s="8">
         <v>45453</v>
       </c>
-      <c r="AV3" s="7"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="16">
-        <v>4</v>
-      </c>
-      <c r="E4" s="14"/>
+      <c r="AV3" s="6"/>
+    </row>
+    <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -927,27 +941,27 @@
       <c r="AS4" s="12"/>
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
-      <c r="AV4" s="7"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="17" t="s">
+      <c r="AV4" s="6"/>
+    </row>
+    <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="18">
-        <v>4</v>
-      </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -983,27 +997,27 @@
       <c r="AS5" s="12"/>
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
-      <c r="AV5" s="7"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="AV5" s="6"/>
+    </row>
+    <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18">
+      <c r="C6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
         <v>4</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -1039,20 +1053,20 @@
       <c r="AS6" s="12"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
-      <c r="AV6" s="7"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="17" t="s">
+      <c r="AV6" s="6"/>
+    </row>
+    <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14"/>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1073,7 +1087,7 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="13"/>
+      <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
@@ -1095,20 +1109,20 @@
       <c r="AS7" s="12"/>
       <c r="AT7" s="12"/>
       <c r="AU7" s="12"/>
-      <c r="AV7" s="7"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="17" t="s">
+      <c r="AV7" s="6"/>
+    </row>
+    <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="18">
-        <v>4</v>
-      </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1129,7 +1143,7 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="13"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
@@ -1151,20 +1165,16 @@
       <c r="AS8" s="12"/>
       <c r="AT8" s="12"/>
       <c r="AU8" s="12"/>
-      <c r="AV8" s="7"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="AV8" s="6"/>
+    </row>
+    <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1185,7 +1195,7 @@
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="13"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
@@ -1207,20 +1217,20 @@
       <c r="AS9" s="12"/>
       <c r="AT9" s="12"/>
       <c r="AU9" s="12"/>
-      <c r="AV9" s="7"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="18">
-        <v>30</v>
-      </c>
-      <c r="E10" s="14"/>
+      <c r="AV9" s="6"/>
+    </row>
+    <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1257,26 +1267,26 @@
       <c r="AM10" s="12"/>
       <c r="AN10" s="12"/>
       <c r="AO10" s="12"/>
-      <c r="AP10" s="13"/>
+      <c r="AP10" s="12"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
       <c r="AS10" s="12"/>
       <c r="AT10" s="12"/>
       <c r="AU10" s="12"/>
-      <c r="AV10" s="7"/>
+      <c r="AV10" s="6"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -1318,64 +1328,387 @@
       <c r="AR11" s="12"/>
       <c r="AS11" s="12"/>
       <c r="AT11" s="12"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="7"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8">
-        <f>SUM(D4:D11)</f>
-        <v>60</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="6"/>
+    </row>
+    <row r="12" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="6"/>
+    </row>
+    <row r="13" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="6"/>
+    </row>
+    <row r="14" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="6"/>
+    </row>
+    <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="6"/>
+    </row>
+    <row r="16" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="6"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="6"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7">
+        <f>SUM(D4:D17)</f>
+        <v>46</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1387,37 +1720,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A542-AF7B-4C21-98E0-6B188ADF1EC9}">
-  <dimension ref="B4:B8"/>
+  <dimension ref="B4:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>15</v>
+      <c r="B8" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Gantt-Chart.xlsx
+++ b/Planung/Gantt-Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/Planung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="11_AD4DB114E441178AC67DF4545ED0D24E693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D88B2EB-9B74-4155-A52A-3721A58B3F25}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="11_AD4DB114E441178AC67DF4545ED0D24E693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161AF2DE-08B0-495C-8C41-997B37834E48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +176,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -303,29 +309,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,752 +636,749 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
     </row>
     <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>45411</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>45412</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>45413</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>45414</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>45415</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>45416</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>45417</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>45418</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>45419</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>45420</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>45421</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>45422</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>45423</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <v>45424</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <v>45425</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <v>45426</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="8">
         <v>45427</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <v>45428</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <v>45429</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="8">
         <v>45430</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="8">
         <v>45431</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="8">
         <v>45432</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="8">
         <v>45433</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="8">
         <v>45434</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="8">
         <v>45435</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="8">
         <v>45436</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AE3" s="8">
         <v>45437</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AF3" s="8">
         <v>45438</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AG3" s="8">
         <v>45439</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="8">
         <v>45440</v>
       </c>
-      <c r="AI3" s="9">
+      <c r="AI3" s="8">
         <v>45441</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AJ3" s="8">
         <v>45442</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AK3" s="8">
         <v>45443</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AL3" s="8">
         <v>45444</v>
       </c>
-      <c r="AM3" s="9">
+      <c r="AM3" s="8">
         <v>45445</v>
       </c>
-      <c r="AN3" s="9">
+      <c r="AN3" s="8">
         <v>45446</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AO3" s="8">
         <v>45447</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AP3" s="8">
         <v>45448</v>
       </c>
-      <c r="AQ3" s="9">
+      <c r="AQ3" s="8">
         <v>45449</v>
       </c>
-      <c r="AR3" s="9">
+      <c r="AR3" s="8">
         <v>45450</v>
       </c>
-      <c r="AS3" s="9">
+      <c r="AS3" s="8">
         <v>45451</v>
       </c>
-      <c r="AT3" s="9">
+      <c r="AT3" s="8">
         <v>45452</v>
       </c>
-      <c r="AU3" s="9">
+      <c r="AU3" s="8">
         <v>45453</v>
       </c>
-      <c r="AV3" s="7"/>
+      <c r="AV3" s="6"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <v>4</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="7"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="6"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>4</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="7"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="6"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>4</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="7"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="6"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="7"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="6"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>4</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="7"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="6"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>12</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="7"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="6"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>30</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="12"/>
-      <c r="AV10" s="7"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="6"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="7"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="6"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7">
         <f>SUM(D4:D11)</f>
         <v>60</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1416,7 +1419,7 @@
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Planung/Gantt-Chart.xlsx
+++ b/Planung/Gantt-Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\IMS-T\IP\Projekte\Projekt_DMHS_Wanduhr\Planung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/Planung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{600D3189-07C9-4B48-AEC8-377451DDA754}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="2895" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart für Digital-Uhr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>David</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>noch offen</t>
+  </si>
+  <si>
+    <t>SUMME -&gt;</t>
+  </si>
+  <si>
+    <t>Beide</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +212,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -241,10 +280,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -259,7 +309,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -272,7 +322,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -281,35 +331,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -318,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -328,22 +356,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -352,6 +389,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCC6600"/>
     </mruColors>
@@ -633,7 +672,7 @@
   <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,23 +681,27 @@
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="11" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="47" width="10.85546875" customWidth="1"/>
     <col min="48" max="48" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -701,14 +744,14 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -893,781 +936,794 @@
     </row>
     <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18">
+        <f>SUM(D5:D8)</f>
+        <v>16</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="23"/>
       <c r="AV4" s="6"/>
     </row>
     <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="23"/>
       <c r="AV5" s="6"/>
     </row>
     <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="23"/>
       <c r="AV6" s="6"/>
     </row>
     <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="23"/>
       <c r="AV7" s="6"/>
     </row>
     <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>6</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="23"/>
       <c r="AV8" s="6"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18">
+        <f>SUM(D10:D11)</f>
+        <v>23</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="23"/>
       <c r="AV9" s="6"/>
     </row>
     <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="12"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="23"/>
       <c r="AV10" s="6"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>20</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="23"/>
       <c r="AV11" s="6"/>
     </row>
     <row r="12" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18">
+        <f>SUM(D13:D14)</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="23"/>
       <c r="AV12" s="6"/>
     </row>
     <row r="13" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="23"/>
       <c r="AV13" s="6"/>
     </row>
     <row r="14" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="23"/>
       <c r="AV14" s="6"/>
     </row>
     <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="23"/>
       <c r="AV15" s="6"/>
     </row>
     <row r="16" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="23"/>
       <c r="AV16" s="6"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="23"/>
       <c r="AV17" s="6"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="7">
-        <f>SUM(D4:D17)</f>
+        <f>SUM(D12,D9,D4)</f>
         <v>46</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1720,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A542-AF7B-4C21-98E0-6B188ADF1EC9}">
-  <dimension ref="B4:B9"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,32 +1787,35 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>

--- a/Planung/Gantt-Chart.xlsx
+++ b/Planung/Gantt-Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\IMS-T\IP\Projekte\Projekt_DMHS_Wanduhr\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB57F2-0DA2-4340-A3A8-0A27F3E0AC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="2895" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3315" windowWidth="24240" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart für Digital-Uhr" sheetId="1" r:id="rId1"/>
@@ -328,14 +328,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -344,6 +338,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,16 +649,16 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -701,14 +701,14 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -893,768 +893,768 @@
     </row>
     <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
       <c r="AV4" s="6"/>
     </row>
     <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
       <c r="AV5" s="6"/>
     </row>
     <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
       <c r="AV6" s="6"/>
     </row>
     <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
       <c r="AV7" s="6"/>
     </row>
     <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>6</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
       <c r="AV8" s="6"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
       <c r="AV9" s="6"/>
     </row>
     <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
       <c r="AV10" s="6"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>20</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
       <c r="AV11" s="6"/>
     </row>
     <row r="12" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
       <c r="AV12" s="6"/>
     </row>
     <row r="13" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>3</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
       <c r="AV13" s="6"/>
     </row>
     <row r="14" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>4</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
       <c r="AV14" s="6"/>
     </row>
     <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
       <c r="AV15" s="6"/>
     </row>
     <row r="16" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
       <c r="AV16" s="6"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
       <c r="AV17" s="6"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Planung/Gantt-Chart.xlsx
+++ b/Planung/Gantt-Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\IMS-T\IP\Projekte\Projekt_DMHS_Wanduhr\Planung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/Planung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB57F2-0DA2-4340-A3A8-0A27F3E0AC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{600D3189-07C9-4B48-AEC8-377451DDA754}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3315" windowWidth="24240" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart für Digital-Uhr" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>David</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>noch offen</t>
+  </si>
+  <si>
+    <t>SUMME -&gt;</t>
+  </si>
+  <si>
+    <t>Beide</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +212,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -241,10 +280,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -259,7 +309,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -272,7 +322,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -281,35 +331,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -318,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -328,15 +356,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,6 +368,19 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -352,6 +389,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCC6600"/>
     </mruColors>
@@ -633,7 +672,7 @@
   <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,23 +681,27 @@
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="11" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="47" width="10.85546875" customWidth="1"/>
     <col min="48" max="48" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -701,14 +744,14 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -893,781 +936,794 @@
     </row>
     <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18">
+        <f>SUM(D5:D8)</f>
+        <v>16</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="23"/>
       <c r="AV4" s="6"/>
     </row>
     <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="23"/>
       <c r="AV5" s="6"/>
     </row>
     <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="23"/>
       <c r="AV6" s="6"/>
     </row>
     <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="23"/>
       <c r="AV7" s="6"/>
     </row>
     <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>6</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="23"/>
       <c r="AV8" s="6"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18">
+        <f>SUM(D10:D11)</f>
+        <v>23</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="23"/>
       <c r="AV9" s="6"/>
     </row>
     <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="23"/>
       <c r="AV10" s="6"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>20</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="23"/>
       <c r="AV11" s="6"/>
     </row>
     <row r="12" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18">
+        <f>SUM(D13:D14)</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="23"/>
       <c r="AV12" s="6"/>
     </row>
     <row r="13" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="23"/>
       <c r="AV13" s="6"/>
     </row>
     <row r="14" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="23"/>
       <c r="AV14" s="6"/>
     </row>
     <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="23"/>
       <c r="AV15" s="6"/>
     </row>
     <row r="16" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="23"/>
       <c r="AV16" s="6"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="23"/>
       <c r="AV17" s="6"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="7">
-        <f>SUM(D4:D17)</f>
+        <f>SUM(D12,D9,D4)</f>
         <v>46</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1720,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A542-AF7B-4C21-98E0-6B188ADF1EC9}">
-  <dimension ref="B4:B9"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,32 +1787,35 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>

--- a/Planung/Gantt-Chart.xlsx
+++ b/Planung/Gantt-Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/Planung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\IMS-T\IP\Projekte\Projekt_DMHS_Wanduhr\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{600D3189-07C9-4B48-AEC8-377451DDA754}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D8D97-8545-4F48-B5B2-E2FF17187C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3315" windowWidth="24240" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart für Digital-Uhr" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -362,12 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -375,12 +369,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -672,7 +671,7 @@
   <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,16 +691,16 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -744,14 +743,14 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -936,62 +935,62 @@
     </row>
     <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16">
         <f>SUM(D5:D8)</f>
         <v>16</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="23"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="21"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="23"/>
+      <c r="AU4" s="21"/>
       <c r="AV4" s="6"/>
     </row>
     <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1000,14 +999,14 @@
       <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="23"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1035,19 +1034,19 @@
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
-      <c r="AN5" s="23"/>
+      <c r="AN5" s="21"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
-      <c r="AU5" s="23"/>
+      <c r="AU5" s="21"/>
       <c r="AV5" s="6"/>
     </row>
     <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1056,14 +1055,14 @@
       <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="23"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1091,19 +1090,19 @@
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
-      <c r="AN6" s="23"/>
+      <c r="AN6" s="21"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
-      <c r="AU6" s="23"/>
+      <c r="AU6" s="21"/>
       <c r="AV6" s="6"/>
     </row>
     <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1112,10 +1111,10 @@
       <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1126,7 +1125,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="23"/>
+      <c r="S7" s="21"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -1147,19 +1146,19 @@
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
-      <c r="AN7" s="23"/>
+      <c r="AN7" s="21"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
-      <c r="AU7" s="23"/>
+      <c r="AU7" s="21"/>
       <c r="AV7" s="6"/>
     </row>
     <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -1168,13 +1167,13 @@
       <c r="D8" s="11">
         <v>6</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="9"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="28"/>
       <c r="M8" s="9"/>
       <c r="N8" s="28"/>
@@ -1196,81 +1195,81 @@
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
-      <c r="AG8" s="23"/>
+      <c r="AG8" s="21"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
-      <c r="AN8" s="23"/>
+      <c r="AN8" s="21"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="9"/>
       <c r="AT8" s="9"/>
-      <c r="AU8" s="23"/>
+      <c r="AU8" s="21"/>
       <c r="AV8" s="6"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16">
         <f>SUM(D10:D11)</f>
         <v>23</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="23"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="21"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
-      <c r="AU9" s="23"/>
+      <c r="AU9" s="21"/>
       <c r="AV9" s="6"/>
     </row>
     <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1279,21 +1278,21 @@
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="23"/>
+      <c r="S10" s="21"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -1314,19 +1313,19 @@
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
-      <c r="AN10" s="23"/>
+      <c r="AN10" s="21"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
-      <c r="AU10" s="23"/>
+      <c r="AU10" s="21"/>
       <c r="AV10" s="6"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1335,8 +1334,8 @@
       <c r="D11" s="11">
         <v>20</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1370,74 +1369,74 @@
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
-      <c r="AN11" s="23"/>
+      <c r="AN11" s="21"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
-      <c r="AU11" s="23"/>
+      <c r="AU11" s="21"/>
       <c r="AV11" s="6"/>
     </row>
     <row r="12" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
         <f>SUM(D13:D14)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="23"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="21"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
-      <c r="AU12" s="23"/>
+      <c r="AU12" s="21"/>
       <c r="AV12" s="6"/>
     </row>
     <row r="13" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1446,21 +1445,21 @@
       <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="23"/>
+      <c r="S13" s="21"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -1481,19 +1480,19 @@
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
-      <c r="AN13" s="23"/>
+      <c r="AN13" s="21"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
-      <c r="AU13" s="23"/>
+      <c r="AU13" s="21"/>
       <c r="AV13" s="6"/>
     </row>
     <row r="14" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1502,8 +1501,8 @@
       <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1512,11 +1511,11 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="23"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="21"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -1537,27 +1536,27 @@
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
-      <c r="AN14" s="23"/>
+      <c r="AN14" s="21"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
-      <c r="AU14" s="23"/>
+      <c r="AU14" s="21"/>
       <c r="AV14" s="6"/>
     </row>
     <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1598,20 +1597,20 @@
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
-      <c r="AU15" s="23"/>
+      <c r="AU15" s="21"/>
       <c r="AV15" s="6"/>
     </row>
     <row r="16" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1652,20 +1651,20 @@
       <c r="AR16" s="9"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
-      <c r="AU16" s="23"/>
+      <c r="AU16" s="21"/>
       <c r="AV16" s="6"/>
     </row>
     <row r="17" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1706,7 +1705,7 @@
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
-      <c r="AU17" s="23"/>
+      <c r="AU17" s="21"/>
       <c r="AV17" s="6"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -1791,7 +1790,7 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Planung/Gantt-Chart.xlsx
+++ b/Planung/Gantt-Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/Planung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{600D3189-07C9-4B48-AEC8-377451DDA754}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32202C15-323F-4B16-A040-DB99916EFD1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart für Digital-Uhr" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -362,12 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -375,12 +369,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -672,7 +671,7 @@
   <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G3" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,8 +680,8 @@
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="11" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" hidden="1" customWidth="1"/>
@@ -692,16 +691,16 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -744,14 +743,14 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -936,62 +935,62 @@
     </row>
     <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16">
         <f>SUM(D5:D8)</f>
         <v>16</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="23"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="21"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="23"/>
+      <c r="AU4" s="21"/>
       <c r="AV4" s="6"/>
     </row>
     <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1000,14 +999,14 @@
       <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="23"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1035,19 +1034,19 @@
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
-      <c r="AN5" s="23"/>
+      <c r="AN5" s="21"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
-      <c r="AU5" s="23"/>
+      <c r="AU5" s="21"/>
       <c r="AV5" s="6"/>
     </row>
     <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1056,14 +1055,14 @@
       <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="23"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1091,19 +1090,19 @@
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
-      <c r="AN6" s="23"/>
+      <c r="AN6" s="21"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
-      <c r="AU6" s="23"/>
+      <c r="AU6" s="21"/>
       <c r="AV6" s="6"/>
     </row>
     <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1112,10 +1111,10 @@
       <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1126,7 +1125,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="23"/>
+      <c r="S7" s="21"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -1147,19 +1146,19 @@
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
-      <c r="AN7" s="23"/>
+      <c r="AN7" s="21"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
-      <c r="AU7" s="23"/>
+      <c r="AU7" s="21"/>
       <c r="AV7" s="6"/>
     </row>
     <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -1168,16 +1167,16 @@
       <c r="D8" s="11">
         <v>6</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="28"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -1196,81 +1195,81 @@
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
-      <c r="AG8" s="23"/>
+      <c r="AG8" s="21"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
-      <c r="AN8" s="23"/>
+      <c r="AN8" s="21"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="9"/>
       <c r="AT8" s="9"/>
-      <c r="AU8" s="23"/>
+      <c r="AU8" s="21"/>
       <c r="AV8" s="6"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16">
         <f>SUM(D10:D11)</f>
         <v>23</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="23"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="21"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
-      <c r="AU9" s="23"/>
+      <c r="AU9" s="21"/>
       <c r="AV9" s="6"/>
     </row>
     <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1279,21 +1278,21 @@
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="23"/>
+      <c r="S10" s="21"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -1314,19 +1313,19 @@
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
-      <c r="AN10" s="23"/>
+      <c r="AN10" s="21"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
-      <c r="AU10" s="23"/>
+      <c r="AU10" s="21"/>
       <c r="AV10" s="6"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1335,8 +1334,8 @@
       <c r="D11" s="11">
         <v>20</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1345,21 +1344,21 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
@@ -1370,74 +1369,74 @@
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
-      <c r="AN11" s="23"/>
+      <c r="AN11" s="21"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
-      <c r="AU11" s="23"/>
+      <c r="AU11" s="21"/>
       <c r="AV11" s="6"/>
     </row>
     <row r="12" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
         <f>SUM(D13:D14)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="23"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="21"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
-      <c r="AU12" s="23"/>
+      <c r="AU12" s="21"/>
       <c r="AV12" s="6"/>
     </row>
     <row r="13" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1446,21 +1445,21 @@
       <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="23"/>
+      <c r="S13" s="21"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -1481,19 +1480,19 @@
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
-      <c r="AN13" s="23"/>
+      <c r="AN13" s="21"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
-      <c r="AU13" s="23"/>
+      <c r="AU13" s="21"/>
       <c r="AV13" s="6"/>
     </row>
     <row r="14" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1502,8 +1501,8 @@
       <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1512,11 +1511,11 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="21"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -1537,27 +1536,27 @@
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
-      <c r="AN14" s="23"/>
+      <c r="AN14" s="21"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
-      <c r="AU14" s="23"/>
+      <c r="AU14" s="21"/>
       <c r="AV14" s="6"/>
     </row>
     <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1598,20 +1597,20 @@
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
-      <c r="AU15" s="23"/>
+      <c r="AU15" s="21"/>
       <c r="AV15" s="6"/>
     </row>
     <row r="16" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1652,20 +1651,20 @@
       <c r="AR16" s="9"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
-      <c r="AU16" s="23"/>
+      <c r="AU16" s="21"/>
       <c r="AV16" s="6"/>
     </row>
     <row r="17" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1706,7 +1705,7 @@
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
-      <c r="AU17" s="23"/>
+      <c r="AU17" s="21"/>
       <c r="AV17" s="6"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -1791,7 +1790,7 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Planung/Gantt-Chart.xlsx
+++ b/Planung/Gantt-Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/Planung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32202C15-323F-4B16-A040-DB99916EFD1E}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{53F5DB4D-9A36-4FC0-8178-F9C740724FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B61BF940-5182-49F8-9966-43578DB0CF05}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart für Digital-Uhr" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,13 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -380,6 +387,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -671,7 +680,7 @@
   <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,21 +1179,21 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="25"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="25"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
@@ -1344,10 +1353,10 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
